--- a/swertres/digit_position.xlsx
+++ b/swertres/digit_position.xlsx
@@ -47,52 +47,52 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00707559"/>
+        <fgColor rgb="00697508"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00751144"/>
+        <fgColor rgb="00766611"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00767913"/>
+        <fgColor rgb="00758039"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00728405"/>
+        <fgColor rgb="00752296"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00710579"/>
+        <fgColor rgb="00713581"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00714406"/>
+        <fgColor rgb="00769743"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00738589"/>
+        <fgColor rgb="00698763"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00715877"/>
+        <fgColor rgb="00762562"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00768957"/>
+        <fgColor rgb="00725338"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00760441"/>
+        <fgColor rgb="00776540"/>
       </patternFill>
     </fill>
   </fills>

--- a/swertres/digit_position.xlsx
+++ b/swertres/digit_position.xlsx
@@ -47,52 +47,52 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00722878"/>
+        <fgColor rgb="00727968"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00734480"/>
+        <fgColor rgb="00719504"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00758584"/>
+        <fgColor rgb="00771898"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00717011"/>
+        <fgColor rgb="00753822"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00720661"/>
+        <fgColor rgb="00760577"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00777615"/>
+        <fgColor rgb="00739481"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00710967"/>
+        <fgColor rgb="00705610"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00697897"/>
+        <fgColor rgb="00764517"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00730227"/>
+        <fgColor rgb="00709553"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00768981"/>
+        <fgColor rgb="00758149"/>
       </patternFill>
     </fill>
   </fills>

--- a/swertres/digit_position.xlsx
+++ b/swertres/digit_position.xlsx
@@ -47,52 +47,52 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00720558"/>
+        <fgColor rgb="00705170"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00712347"/>
+        <fgColor rgb="00736235"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00770557"/>
+        <fgColor rgb="00736142"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00756774"/>
+        <fgColor rgb="00728258"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00763334"/>
+        <fgColor rgb="00737416"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00743486"/>
+        <fgColor rgb="00753980"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00755644"/>
+        <fgColor rgb="00747609"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00723137"/>
+        <fgColor rgb="00748877"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00718931"/>
+        <fgColor rgb="00743491"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00776363"/>
+        <fgColor rgb="00716500"/>
       </patternFill>
     </fill>
   </fills>
